--- a/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelaov2.xlsx
+++ b/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelaov2.xlsx
@@ -7,7 +7,10 @@
     <workbookView windowWidth="22890" windowHeight="10950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Geral" sheetId="1" r:id="rId1"/>
+    <sheet name="WRAcc" sheetId="2" r:id="rId2"/>
+    <sheet name="SUPP2" sheetId="3" r:id="rId3"/>
+    <sheet name="Redundancy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -206,10 +209,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,22 +223,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,9 +253,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,6 +272,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,22 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -302,24 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,13 +322,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +344,36 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,13 +382,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +448,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,109 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,41 +568,110 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,47 +693,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,15 +706,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,153 +729,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -875,6 +955,3363 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="x-none" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Box Plot</a:t>
+            </a:r>
+            <a:endParaRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WRAcc!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WRAcc!$A$24:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.02745679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02617284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.001564651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>WRAcc!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WRAcc!$A$25:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.05291195425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05346350725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.055935257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WRAcc!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WRAcc!$A$26:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0786792455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.080332207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08996142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WRAcc!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WRAcc!$A$27:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.144939737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13192176875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16381212275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>WRAcc!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WRAcc!$A$28:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.196813317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.195361078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="121277259"/>
+        <c:axId val="748727536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="121277259"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748727536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="748727536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121277259"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="x-none" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Box Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="x-none" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUPP2!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUPP2!$A$24:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.584664537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUPP2!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUPP2!$A$25:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.734576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7327784705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87745158525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUPP2!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUPP2!$A$26:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.926613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9359483615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9823013405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUPP2!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUPP2!$A$27:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99256225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98121631375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUPP2!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SUPP2!$A$28:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="865670601"/>
+        <c:axId val="952879513"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="865670601"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="952879513"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="952879513"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="865670601"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr vertOverflow="ellipsis" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" defTabSz="914400">
+              <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="x-none" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Box Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="x-none" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Redundancy!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Redundancy!$A$24:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.000231481249999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.136312640628194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17044134708183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Redundancy!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Redundancy!$A$25:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.253503403989004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.342401500288027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.648088103416667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Redundancy!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Redundancy!$A$26:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.584842568346308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.614341085604583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.922887771924152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Redundancy!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Redundancy!$A$27:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.866500229753411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.865265656396926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Redundancy!$A$23:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SSDP-ACO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSDP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMEEF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Redundancy!$A$28:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.977422578914473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999581590778035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="51709177"/>
+        <c:axId val="929562287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51709177"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929562287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="929562287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51709177"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>356235</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3328035" y="226060"/>
+        <a:ext cx="7524115" cy="4410075"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3327400" y="273050"/>
+        <a:ext cx="7620000" cy="4362450"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3327400" y="187960"/>
+        <a:ext cx="7581900" cy="4448175"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AD161" totalsRowShown="0">
   <autoFilter ref="A1:AD161"/>
@@ -909,6 +4346,78 @@
     <tableColumn id="28" name="SUPP2-suppP"/>
     <tableColumn id="29" name="t"/>
     <tableColumn id="30" name="Redundancy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SSDP-ACO"/>
+    <tableColumn id="2" name="SSDP"/>
+    <tableColumn id="3" name="NMEEF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A23:C28" totalsRowShown="0">
+  <autoFilter ref="A23:C28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SSDP-ACO"/>
+    <tableColumn id="2" name="SSDP"/>
+    <tableColumn id="3" name="NMEEF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table3_5" displayName="Table3_5" ref="A23:C28" totalsRowShown="0">
+  <autoFilter ref="A23:C28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SSDP-ACO"/>
+    <tableColumn id="2" name="SSDP"/>
+    <tableColumn id="3" name="NMEEF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SSDP-ACO"/>
+    <tableColumn id="2" name="SSDP"/>
+    <tableColumn id="3" name="NMEEF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table3_57" displayName="Table3_57" ref="A23:C28" totalsRowShown="0">
+  <autoFilter ref="A23:C28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SSDP-ACO"/>
+    <tableColumn id="2" name="SSDP"/>
+    <tableColumn id="3" name="NMEEF"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="SSDP-ACO"/>
+    <tableColumn id="2" name="SSDP"/>
+    <tableColumn id="3" name="NMEEF"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1176,11 +4685,11 @@
   <dimension ref="A1:AD170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U132" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X147" sqref="X147"/>
+      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1615,7 +5124,7 @@
       <c r="N5">
         <v>159.2785475</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="7">
         <v>2.77e-5</v>
       </c>
       <c r="P5">
@@ -2565,7 +6074,7 @@
       <c r="N15">
         <v>127.1382514</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="7">
         <v>0.000107</v>
       </c>
       <c r="P15">
@@ -2945,7 +6454,7 @@
       <c r="N19">
         <v>55.39469136</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="7">
         <v>7.52e-9</v>
       </c>
       <c r="P19">
@@ -3325,7 +6834,7 @@
       <c r="N23">
         <v>24.9268384</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="7">
         <v>9.2e-7</v>
       </c>
       <c r="P23">
@@ -3420,7 +6929,7 @@
       <c r="N24">
         <v>42.9657228</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="7">
         <v>5.57e-11</v>
       </c>
       <c r="P24">
@@ -3800,7 +7309,7 @@
       <c r="N28">
         <v>13.16014729</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="7">
         <v>0.000615</v>
       </c>
       <c r="P28">
@@ -4750,7 +8259,7 @@
       <c r="N38">
         <v>171.5156082</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="7">
         <v>1.58e-9</v>
       </c>
       <c r="P38">
@@ -5510,7 +9019,7 @@
       <c r="N46">
         <v>52.13738772</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="7">
         <v>5.17e-13</v>
       </c>
       <c r="P46">
@@ -6935,7 +10444,7 @@
       <c r="N61">
         <v>157.4475517</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="7">
         <v>7.81e-14</v>
       </c>
       <c r="P61">
@@ -7125,7 +10634,7 @@
       <c r="N63">
         <v>25.1259588</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="7">
         <v>6.89e-7</v>
       </c>
       <c r="P63">
@@ -7220,7 +10729,7 @@
       <c r="N64">
         <v>37.60663096</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="7">
         <v>4.39e-9</v>
       </c>
       <c r="P64">
@@ -7315,7 +10824,7 @@
       <c r="N65">
         <v>172.8003676</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="7">
         <v>4.03e-8</v>
       </c>
       <c r="P65">
@@ -7600,7 +11109,7 @@
       <c r="N68">
         <v>17.3624707</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="7">
         <v>0.000255</v>
       </c>
       <c r="P68">
@@ -8075,7 +11584,7 @@
       <c r="N73">
         <v>66.77699521</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="7">
         <v>2.42e-15</v>
       </c>
       <c r="P73">
@@ -8265,7 +11774,7 @@
       <c r="N75">
         <v>331.6535568</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="7">
         <v>5.29e-8</v>
       </c>
       <c r="P75">
@@ -8645,7 +12154,7 @@
       <c r="N79">
         <v>41.4577365</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="7">
         <v>1.8e-8</v>
       </c>
       <c r="P79">
@@ -9025,7 +12534,7 @@
       <c r="N83">
         <v>21.51088759</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="7">
         <v>0.000191</v>
       </c>
       <c r="P83">
@@ -9120,7 +12629,7 @@
       <c r="N84">
         <v>26.74752231</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="7">
         <v>1.26e-6</v>
       </c>
       <c r="P84">
@@ -9215,7 +12724,7 @@
       <c r="N85">
         <v>172.8003676</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="7">
         <v>4.03e-8</v>
       </c>
       <c r="P85">
@@ -9500,7 +13009,7 @@
       <c r="N88">
         <v>3.801877912</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O88" s="7">
         <v>0.058</v>
       </c>
       <c r="P88">
@@ -9975,7 +13484,7 @@
       <c r="N93">
         <v>75.23506651</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O93" s="7">
         <v>2.22e-17</v>
       </c>
       <c r="P93">
@@ -10165,7 +13674,7 @@
       <c r="N95">
         <v>828.2712345</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="7">
         <v>0</v>
       </c>
       <c r="P95">
@@ -10545,7 +14054,7 @@
       <c r="N99">
         <v>45.7415308</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O99" s="7">
         <v>1.35e-8</v>
       </c>
       <c r="P99">
@@ -10925,7 +14434,7 @@
       <c r="N103">
         <v>24.23782552</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103" s="7">
         <v>1.2e-6</v>
       </c>
       <c r="P103">
@@ -11020,7 +14529,7 @@
       <c r="N104">
         <v>26.74752231</v>
       </c>
-      <c r="O104" s="1">
+      <c r="O104" s="7">
         <v>1.26e-6</v>
       </c>
       <c r="P104">
@@ -11115,7 +14624,7 @@
       <c r="N105">
         <v>172.8003676</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105" s="7">
         <v>4.03e-8</v>
       </c>
       <c r="P105">
@@ -11400,7 +14909,7 @@
       <c r="N108">
         <v>8.912403423</v>
       </c>
-      <c r="O108" s="1">
+      <c r="O108" s="7">
         <v>0.0167</v>
       </c>
       <c r="P108">
@@ -11875,7 +15384,7 @@
       <c r="N113">
         <v>72.81139833</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113" s="7">
         <v>2.22e-17</v>
       </c>
       <c r="P113">
@@ -12065,7 +15574,7 @@
       <c r="N115">
         <v>828.2712345</v>
       </c>
-      <c r="O115" s="1">
+      <c r="O115" s="7">
         <v>0</v>
       </c>
       <c r="P115">
@@ -12445,7 +15954,7 @@
       <c r="N119">
         <v>41.4577365</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119" s="7">
         <v>1.8e-8</v>
       </c>
       <c r="P119">
@@ -12825,7 +16334,7 @@
       <c r="N123">
         <v>25.1259588</v>
       </c>
-      <c r="O123" s="1">
+      <c r="O123" s="7">
         <v>6.89e-7</v>
       </c>
       <c r="P123">
@@ -12920,7 +16429,7 @@
       <c r="N124">
         <v>38.77273039</v>
       </c>
-      <c r="O124" s="1">
+      <c r="O124" s="7">
         <v>9.58e-9</v>
       </c>
       <c r="P124">
@@ -13015,7 +16524,7 @@
       <c r="N125">
         <v>172.8003676</v>
       </c>
-      <c r="O125" s="1">
+      <c r="O125" s="7">
         <v>4.03e-8</v>
       </c>
       <c r="P125">
@@ -13300,7 +16809,7 @@
       <c r="N128">
         <v>4.084113684</v>
       </c>
-      <c r="O128" s="1">
+      <c r="O128" s="7">
         <v>0.0528</v>
       </c>
       <c r="P128">
@@ -13775,7 +17284,7 @@
       <c r="N133">
         <v>72.2261267</v>
       </c>
-      <c r="O133" s="1">
+      <c r="O133" s="7">
         <v>2.22e-17</v>
       </c>
       <c r="P133">
@@ -13965,7 +17474,7 @@
       <c r="N135">
         <v>1066</v>
       </c>
-      <c r="O135" s="1">
+      <c r="O135" s="7">
         <v>0</v>
       </c>
       <c r="P135">
@@ -14345,7 +17854,7 @@
       <c r="N139">
         <v>41.4577365</v>
       </c>
-      <c r="O139" s="1">
+      <c r="O139" s="7">
         <v>1.8e-8</v>
       </c>
       <c r="P139">
@@ -14725,7 +18234,7 @@
       <c r="N143">
         <v>25.1259588</v>
       </c>
-      <c r="O143" s="1">
+      <c r="O143" s="7">
         <v>6.89e-7</v>
       </c>
       <c r="P143">
@@ -14820,7 +18329,7 @@
       <c r="N144">
         <v>38.2318369</v>
       </c>
-      <c r="O144" s="1">
+      <c r="O144" s="7">
         <v>9.6e-9</v>
       </c>
       <c r="P144">
@@ -14915,7 +18424,7 @@
       <c r="N145">
         <v>172.8003676</v>
       </c>
-      <c r="O145" s="1">
+      <c r="O145" s="7">
         <v>4.03e-8</v>
       </c>
       <c r="P145">
@@ -15105,7 +18614,7 @@
       <c r="N147">
         <v>12.67159304</v>
       </c>
-      <c r="O147" s="1">
+      <c r="O147" s="7">
         <v>0.000456</v>
       </c>
       <c r="P147">
@@ -15200,7 +18709,7 @@
       <c r="N148">
         <v>17.3624707</v>
       </c>
-      <c r="O148" s="1">
+      <c r="O148" s="7">
         <v>0.000255</v>
       </c>
       <c r="P148">
@@ -15675,7 +19184,7 @@
       <c r="N153">
         <v>72.2261267</v>
       </c>
-      <c r="O153" s="1">
+      <c r="O153" s="7">
         <v>2.22e-17</v>
       </c>
       <c r="P153">
@@ -15865,7 +19374,7 @@
       <c r="N155">
         <v>234.5935965</v>
       </c>
-      <c r="O155" s="1">
+      <c r="O155" s="7">
         <v>0.00715</v>
       </c>
       <c r="P155">
@@ -16245,7 +19754,7 @@
       <c r="N159">
         <v>41.4577365</v>
       </c>
-      <c r="O159" s="1">
+      <c r="O159" s="7">
         <v>1.8e-8</v>
       </c>
       <c r="P159">
@@ -17198,4 +20707,1017 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="12.625"/>
+    <col min="3" max="3" width="13.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>0.175041115</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.173110659</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.176345054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>0.062929728</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.062929728</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.060753582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>0.143909297</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.137687075</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.157460317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>0.058680556</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.058680556</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.09992284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>0.148031057</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.156364319</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.109436482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>0.140625</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.128125</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.120675223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>0.077358491</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.077358491</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.068396226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>0.054032258</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.054032258</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.068548387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>0.185229969</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.185229969</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.159634479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>0.044485597</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.044444444</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>0.02745679</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.02617284</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.022921811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>0.085195917</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.083305923</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.072</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>0.053296854</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.093171154</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.214092239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
+        <v>0.089356877</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.090962059</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>0.029609082</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.029609082</v>
+      </c>
+      <c r="C17" s="5">
+        <v>-0.001564651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>0.051757255</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.051757255</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.041480282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>0.040324092</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.040324092</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.069647535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.188372093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>0.196813317</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.195361078</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.217566389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>MIN(A2:A21)</f>
+        <v>0.02745679</v>
+      </c>
+      <c r="B24">
+        <f>MIN(B2:B21)</f>
+        <v>0.02617284</v>
+      </c>
+      <c r="C24">
+        <f>MIN(C2:C21)</f>
+        <v>-0.001564651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f>QUARTILE(A1:A21,1)</f>
+        <v>0.05291195425</v>
+      </c>
+      <c r="B25">
+        <f>QUARTILE(B1:B21,1)</f>
+        <v>0.05346350725</v>
+      </c>
+      <c r="C25">
+        <f>QUARTILE(C1:C21,1)</f>
+        <v>0.055935257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f>QUARTILE(A1:A21,2)</f>
+        <v>0.0786792455</v>
+      </c>
+      <c r="B26">
+        <f>QUARTILE(B1:B21,2)</f>
+        <v>0.080332207</v>
+      </c>
+      <c r="C26">
+        <f>QUARTILE(C1:C21,2)</f>
+        <v>0.08996142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f>QUARTILE(A1:A21,3)</f>
+        <v>0.144939737</v>
+      </c>
+      <c r="B27">
+        <f>QUARTILE(B1:B21,3)</f>
+        <v>0.13192176875</v>
+      </c>
+      <c r="C27">
+        <f>QUARTILE(C1:C21,3)</f>
+        <v>0.16381212275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f>MAX(A1:A21)</f>
+        <v>0.196813317</v>
+      </c>
+      <c r="B28">
+        <f>MAX(B1:B21)</f>
+        <v>0.195361078</v>
+      </c>
+      <c r="C28">
+        <f>MAX(C1:C21)</f>
+        <v>0.222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="12.625"/>
+    <col min="3" max="3" width="13.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.947368421</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>0.860697</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.860696517</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.905472637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>0.977273</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.977272727</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.909090909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>0.990083</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.990082645</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.79338843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>0.723188</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.715997603</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.980227681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>0.846154</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.846153846</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>0.90566</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.924528302</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.547169811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>0.66129</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.661290323</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>0.977186</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.977186312</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.977186312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>0.546875</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.609375</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>0.619048</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.619047619</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
+        <v>0.978261</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.97826087</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>0.738372</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.738372093</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>0.807855</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.807854985</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.693655589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>0.584665</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.584664537</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.584664537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>0.947566</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.947565543</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.947565543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>MIN(A2:A21)</f>
+        <v>0.546875</v>
+      </c>
+      <c r="B24">
+        <f>MIN(B2:B21)</f>
+        <v>0.584664537</v>
+      </c>
+      <c r="C24">
+        <f>MIN(C2:C21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f>QUARTILE(A1:A21,1)</f>
+        <v>0.734576</v>
+      </c>
+      <c r="B25">
+        <f>QUARTILE(B1:B21,1)</f>
+        <v>0.7327784705</v>
+      </c>
+      <c r="C25">
+        <f>QUARTILE(C1:C21,1)</f>
+        <v>0.87745158525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f>QUARTILE(A1:A21,2)</f>
+        <v>0.926613</v>
+      </c>
+      <c r="B26">
+        <f>QUARTILE(B1:B21,2)</f>
+        <v>0.9359483615</v>
+      </c>
+      <c r="C26">
+        <f>QUARTILE(C1:C21,2)</f>
+        <v>0.9823013405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f>QUARTILE(A1:A21,3)</f>
+        <v>0.99256225</v>
+      </c>
+      <c r="B27">
+        <f>QUARTILE(B1:B21,3)</f>
+        <v>0.98121631375</v>
+      </c>
+      <c r="C27">
+        <f>QUARTILE(C1:C21,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f>MAX(A1:A21)</f>
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f>MAX(B1:B21)</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>MAX(C1:C21)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="3" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.969298245</v>
+      </c>
+      <c r="B2">
+        <v>0.990740740555041</v>
+      </c>
+      <c r="C2">
+        <v>0.991041433191489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.864161224856134</v>
+      </c>
+      <c r="B3">
+        <v>0.864161850093789</v>
+      </c>
+      <c r="C3">
+        <v>0.843406593191176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.732557865100131</v>
+      </c>
+      <c r="B4">
+        <v>0.645348837459167</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0.234557422206017</v>
+      </c>
+      <c r="B5">
+        <v>0.234557595946953</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0.977422578914473</v>
+      </c>
+      <c r="B6">
+        <v>0.999581590778035</v>
+      </c>
+      <c r="C6">
+        <v>0.848732466923779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>0.704545280764495</v>
+      </c>
+      <c r="B7">
+        <v>0.659090908688016</v>
+      </c>
+      <c r="C7">
+        <v>0.6538461535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>0.218750195989665</v>
+      </c>
+      <c r="B8">
+        <v>0.209183674076426</v>
+      </c>
+      <c r="C8">
+        <v>0.206896551535077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>0.347561266615252</v>
+      </c>
+      <c r="B9">
+        <v>0.34756097474301</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>0.747082030698352</v>
+      </c>
+      <c r="B10">
+        <v>0.747081712345967</v>
+      </c>
+      <c r="C10">
+        <v>0.854734110656815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>0.000231481249999971</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>0.178571428571429</v>
+      </c>
+      <c r="B12">
+        <v>0.326923076923077</v>
+      </c>
+      <c r="C12">
+        <v>0.514285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>0.932691580459027</v>
+      </c>
+      <c r="B13">
+        <v>0.94230769143787</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>0.41666666625</v>
+      </c>
+      <c r="B14">
+        <v>0.58333333375</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>0.25981873125</v>
+      </c>
+      <c r="B15">
+        <v>0.65181268875</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>0.938888730870392</v>
+      </c>
+      <c r="B16">
+        <v>0.949999999744445</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0.519685136692616</v>
+      </c>
+      <c r="B17">
+        <v>0.519685039748652</v>
+      </c>
+      <c r="C17">
+        <v>0.630813953166667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0.136312633455261</v>
+      </c>
+      <c r="B18">
+        <v>0.136312640628194</v>
+      </c>
+      <c r="C18">
+        <v>0.17044134708183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0.393442112149692</v>
+      </c>
+      <c r="B19">
+        <v>0.393442621696072</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0.65</v>
+      </c>
+      <c r="B20">
+        <v>0.45</v>
+      </c>
+      <c r="C20">
+        <v>0.842857142952381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0.873517244445242</v>
+      </c>
+      <c r="B21">
+        <v>0.868577075306336</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f>MIN(A2:A21)</f>
+        <v>0.000231481249999971</v>
+      </c>
+      <c r="B24">
+        <f>MIN(B2:B21)</f>
+        <v>0.136312640628194</v>
+      </c>
+      <c r="C24">
+        <f>MIN(C2:C21)</f>
+        <v>0.17044134708183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f>QUARTILE(A1:A21,1)</f>
+        <v>0.253503403989004</v>
+      </c>
+      <c r="B25">
+        <f>QUARTILE(B1:B21,1)</f>
+        <v>0.342401500288027</v>
+      </c>
+      <c r="C25">
+        <f>QUARTILE(C1:C21,1)</f>
+        <v>0.648088103416667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f>QUARTILE(A1:A21,2)</f>
+        <v>0.584842568346308</v>
+      </c>
+      <c r="B26">
+        <f>QUARTILE(B1:B21,2)</f>
+        <v>0.614341085604583</v>
+      </c>
+      <c r="C26">
+        <f>QUARTILE(C1:C21,2)</f>
+        <v>0.922887771924152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f>QUARTILE(A1:A21,3)</f>
+        <v>0.866500229753411</v>
+      </c>
+      <c r="B27">
+        <f>QUARTILE(B1:B21,3)</f>
+        <v>0.865265656396926</v>
+      </c>
+      <c r="C27">
+        <f>QUARTILE(C1:C21,3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f>MAX(A1:A21)</f>
+        <v>0.977422578914473</v>
+      </c>
+      <c r="B28">
+        <f>MAX(B1:B21)</f>
+        <v>0.999581590778035</v>
+      </c>
+      <c r="C28">
+        <f>MAX(C1:C21)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>